--- a/2024/shuffle-architecute/Teste10/content/results/metrics_7_4.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_7_4.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9477254724125098</v>
+        <v>0.9510269454132977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7274806751996874</v>
+        <v>0.7442822554603007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8135977385317337</v>
+        <v>0.7988143136665103</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9825876082763964</v>
+        <v>0.6911082224395917</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9029365316700759</v>
+        <v>0.8413629541821446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2193850129842758</v>
+        <v>0.2055294215679169</v>
       </c>
       <c r="H2" t="n">
-        <v>1.822337985038757</v>
+        <v>1.709985733032227</v>
       </c>
       <c r="I2" t="n">
-        <v>1.001118183135986</v>
+        <v>0.4273640811443329</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0480775274336338</v>
+        <v>0.3053067326545715</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5245978832244873</v>
+        <v>0.3663353323936462</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9473985818256374</v>
+        <v>0.9509978604788768</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7271484262950366</v>
+        <v>0.7438515137528445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.81320753967633</v>
+        <v>0.8022322806490937</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9826089054880227</v>
+        <v>0.6943346202500548</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9027481022250766</v>
+        <v>0.8436254278006495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2207569181919098</v>
+        <v>0.2056514769792557</v>
       </c>
       <c r="H3" t="n">
-        <v>1.824559807777405</v>
+        <v>1.712866067886353</v>
       </c>
       <c r="I3" t="n">
-        <v>1.003213882446289</v>
+        <v>0.4201035499572754</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04801872000098228</v>
+        <v>0.3021177649497986</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5256162881851196</v>
+        <v>0.3611106872558594</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9470633288364781</v>
+        <v>0.9509570736832442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7268100313920467</v>
+        <v>0.7434089716646751</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8128057302704739</v>
+        <v>0.8056667963510227</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9826214306206904</v>
+        <v>0.6974451399199305</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9025516631045684</v>
+        <v>0.8458707348567148</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2221638709306717</v>
+        <v>0.2058226764202118</v>
       </c>
       <c r="H4" t="n">
-        <v>1.826822638511658</v>
+        <v>1.715825438499451</v>
       </c>
       <c r="I4" t="n">
-        <v>1.005371809005737</v>
+        <v>0.412807822227478</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04798413813114166</v>
+        <v>0.2990433275699615</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5266779661178589</v>
+        <v>0.3559256792068481</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9467195035619401</v>
+        <v>0.9509040958874199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7264653691719598</v>
+        <v>0.7429543545288504</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8123917576073139</v>
+        <v>0.8091174043677763</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9826249530454673</v>
+        <v>0.7004317571159215</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9023468793529478</v>
+        <v>0.8480969512036491</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2236068546772003</v>
+        <v>0.2060450166463852</v>
       </c>
       <c r="H5" t="n">
-        <v>1.829127311706543</v>
+        <v>1.718865513801575</v>
       </c>
       <c r="I5" t="n">
-        <v>1.007595181465149</v>
+        <v>0.4054779410362244</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04797441512346268</v>
+        <v>0.2960913777351379</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5277848243713379</v>
+        <v>0.3507847189903259</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9463668875081409</v>
+        <v>0.9508384615092363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7261143092763481</v>
+        <v>0.742487335296006</v>
       </c>
       <c r="D6" t="n">
-        <v>0.811965421895204</v>
+        <v>0.8125843752100075</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9826193417212704</v>
+        <v>0.703286978938592</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9021336204720179</v>
+        <v>0.850302608673404</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2250866889953613</v>
+        <v>0.2063204646110535</v>
       </c>
       <c r="H6" t="n">
-        <v>1.831474900245667</v>
+        <v>1.721988439559937</v>
       </c>
       <c r="I6" t="n">
-        <v>1.00988495349884</v>
+        <v>0.3981133103370667</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04798990488052368</v>
+        <v>0.2932692766189575</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5289373993873596</v>
+        <v>0.3456912934780121</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9460053043111587</v>
+        <v>0.9507595996967959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7257567183851923</v>
+        <v>0.742007539093563</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8115262764113178</v>
+        <v>0.8160675030353313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9826044320456592</v>
+        <v>0.7060026762283729</v>
       </c>
       <c r="F7" t="n">
-        <v>0.901911632059222</v>
+        <v>0.8524858232600281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2266041934490204</v>
+        <v>0.20665143430233</v>
       </c>
       <c r="H7" t="n">
-        <v>1.833866119384766</v>
+        <v>1.725196838378906</v>
       </c>
       <c r="I7" t="n">
-        <v>1.012243509292603</v>
+        <v>0.3907143771648407</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04803106933832169</v>
+        <v>0.2905851602554321</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5301371812820435</v>
+        <v>0.3406496644020081</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9456345151989521</v>
+        <v>0.9506670900381951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7253924859911163</v>
+        <v>0.7415146975238408</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8110739164731218</v>
+        <v>0.8195668996431259</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9825800713903453</v>
+        <v>0.7085693803461763</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9016806289614064</v>
+        <v>0.8546445633757599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2281603068113327</v>
+        <v>0.2070396840572357</v>
       </c>
       <c r="H8" t="n">
-        <v>1.836301803588867</v>
+        <v>1.728492379188538</v>
       </c>
       <c r="I8" t="n">
-        <v>1.014672994613647</v>
+        <v>0.3832808434963226</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04809833690524101</v>
+        <v>0.2880482077598572</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5313857197761536</v>
+        <v>0.3356645703315735</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9452542938510347</v>
+        <v>0.9505602735202203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7250214475555135</v>
+        <v>0.7410084604144571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8106077211598928</v>
+        <v>0.8230823427499216</v>
       </c>
       <c r="E9" t="n">
-        <v>0.982545999106689</v>
+        <v>0.7109776601665854</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9014402946905574</v>
+        <v>0.8567768630065491</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2297560125589371</v>
+        <v>0.207487940788269</v>
       </c>
       <c r="H9" t="n">
-        <v>1.838782787322998</v>
+        <v>1.731877684593201</v>
       </c>
       <c r="I9" t="n">
-        <v>1.017176866531372</v>
+        <v>0.3758132457733154</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04819241166114807</v>
+        <v>0.285667896270752</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5326846241950989</v>
+        <v>0.3307405114173889</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9448644266439659</v>
+        <v>0.9504386992993028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7246434891756965</v>
+        <v>0.7404885262162961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8101272474282778</v>
+        <v>0.8266139516083888</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9825020779135563</v>
+        <v>0.7132191600346155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9011903931770846</v>
+        <v>0.8588808363694136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2313922047615051</v>
+        <v>0.2079981565475464</v>
       </c>
       <c r="H10" t="n">
-        <v>1.841310262680054</v>
+        <v>1.735354423522949</v>
       </c>
       <c r="I10" t="n">
-        <v>1.019757390022278</v>
+        <v>0.3683113157749176</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0483136810362339</v>
+        <v>0.2834523916244507</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5340352058410645</v>
+        <v>0.3258818686008453</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9444646371423036</v>
+        <v>0.9503017393374377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7242584867455086</v>
+        <v>0.7399544798304167</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8096320052254439</v>
+        <v>0.8301614505563347</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9824482222210505</v>
+        <v>0.715283564809591</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9009305193617789</v>
+        <v>0.8609542606125815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.23307004570961</v>
+        <v>0.2085729837417603</v>
       </c>
       <c r="H11" t="n">
-        <v>1.843884825706482</v>
+        <v>1.738925576210022</v>
       </c>
       <c r="I11" t="n">
-        <v>1.022417187690735</v>
+        <v>0.3607756197452545</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0484623871743679</v>
+        <v>0.2814119756221771</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5354397892951965</v>
+        <v>0.3210937976837158</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9440547834835399</v>
+        <v>0.9501488606371635</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7238662827073948</v>
+        <v>0.7394059978997589</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8091217937734945</v>
+        <v>0.8337252792283735</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9823841957504631</v>
+        <v>0.7171608589301861</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9006606651322558</v>
+        <v>0.8629950423302916</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2347901165485382</v>
+        <v>0.2092145532369614</v>
       </c>
       <c r="H12" t="n">
-        <v>1.846507430076599</v>
+        <v>1.74259340763092</v>
       </c>
       <c r="I12" t="n">
-        <v>1.025157332420349</v>
+        <v>0.3532052338123322</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04863916710019112</v>
+        <v>0.2795564532279968</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5368982553482056</v>
+        <v>0.3163810670375824</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9436345067293103</v>
+        <v>0.9499794045173275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7234667298166091</v>
+        <v>0.7388426971156505</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8085957185646595</v>
+        <v>0.8373047584980856</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9823098685569366</v>
+        <v>0.7188402829218947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9003802712697624</v>
+        <v>0.8650008387778801</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2365539371967316</v>
+        <v>0.2099257409572601</v>
       </c>
       <c r="H13" t="n">
-        <v>1.849179267883301</v>
+        <v>1.746360182762146</v>
       </c>
       <c r="I13" t="n">
-        <v>1.027982711791992</v>
+        <v>0.3456016182899475</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04884439706802368</v>
+        <v>0.277896523475647</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5384136438369751</v>
+        <v>0.3117491602897644</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9432036470712563</v>
+        <v>0.949792744026244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7230596958189622</v>
+        <v>0.7382642394116454</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8080533994480392</v>
+        <v>0.8409003187930774</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9822250983841607</v>
+        <v>0.7203106816204818</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9000891847132793</v>
+        <v>0.8669692810593385</v>
       </c>
       <c r="G14" t="n">
-        <v>0.238362118601799</v>
+        <v>0.2107091099023819</v>
       </c>
       <c r="H14" t="n">
-        <v>1.851901054382324</v>
+        <v>1.7502281665802</v>
       </c>
       <c r="I14" t="n">
-        <v>1.030895352363586</v>
+        <v>0.3379638493061066</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04907845705747604</v>
+        <v>0.2764431834220886</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5399869680404663</v>
+        <v>0.3072035014629364</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9427618922873668</v>
+        <v>0.94958828582449</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7226450397829731</v>
+        <v>0.7376702245118565</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8074942561938825</v>
+        <v>0.844511941808941</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9821297580700037</v>
+        <v>0.7215620275686065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.899787014075914</v>
+        <v>0.8688981776162882</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2402161061763763</v>
+        <v>0.2115671783685684</v>
       </c>
       <c r="H15" t="n">
-        <v>1.854673862457275</v>
+        <v>1.754200339317322</v>
       </c>
       <c r="I15" t="n">
-        <v>1.03389835357666</v>
+        <v>0.3302919566631317</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04934169724583626</v>
+        <v>0.2752063870429993</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5416200757026672</v>
+        <v>0.3027491569519043</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.942309061450628</v>
+        <v>0.9493654098006935</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7222226449175502</v>
+        <v>0.737060255203836</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8069179959290634</v>
+        <v>0.8481396859663317</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9820236478906533</v>
+        <v>0.7225814577288394</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8994735900180282</v>
+        <v>0.8707848492339221</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2421165108680725</v>
+        <v>0.2125025540590286</v>
       </c>
       <c r="H16" t="n">
-        <v>1.857498526573181</v>
+        <v>1.758279323577881</v>
       </c>
       <c r="I16" t="n">
-        <v>1.036993265151978</v>
+        <v>0.322585791349411</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04963468387722969</v>
+        <v>0.2741987705230713</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5433140397071838</v>
+        <v>0.2983923554420471</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9418447916568076</v>
+        <v>0.9491233407597007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7217923383348092</v>
+        <v>0.7364339700692415</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8063235044178114</v>
+        <v>0.8517831472529866</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9819067724839858</v>
+        <v>0.7233576106117535</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8991483532347105</v>
+        <v>0.872626768803741</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2440649569034576</v>
+        <v>0.2135184407234192</v>
       </c>
       <c r="H17" t="n">
-        <v>1.860375881195068</v>
+        <v>1.7624671459198</v>
       </c>
       <c r="I17" t="n">
-        <v>1.040186285972595</v>
+        <v>0.3148462474346161</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04995738714933395</v>
+        <v>0.2734316289424896</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5450717806816101</v>
+        <v>0.2941388487815857</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9413689312428744</v>
+        <v>0.9488614703874554</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7213540039072929</v>
+        <v>0.7357909488895054</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8057106502178265</v>
+        <v>0.8554428749107534</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9817789206790672</v>
+        <v>0.7238787159937993</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8988111905295182</v>
+        <v>0.8744214871482563</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2460620552301407</v>
+        <v>0.2146174609661102</v>
       </c>
       <c r="H18" t="n">
-        <v>1.863306999206543</v>
+        <v>1.766767024993896</v>
       </c>
       <c r="I18" t="n">
-        <v>1.043477773666382</v>
+        <v>0.3070721328258514</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0503103993833065</v>
+        <v>0.2729165554046631</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5468940734863281</v>
+        <v>0.2899943590164185</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.940881098825599</v>
+        <v>0.9485790860021358</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7209074649438144</v>
+        <v>0.735130849078889</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8050786622219017</v>
+        <v>0.8591184905754614</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9816400151709348</v>
+        <v>0.7241322143331599</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8984617036820928</v>
+        <v>0.8761662107870338</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2481093555688858</v>
+        <v>0.2158025503158569</v>
       </c>
       <c r="H19" t="n">
-        <v>1.86629319190979</v>
+        <v>1.771181225776672</v>
       </c>
       <c r="I19" t="n">
-        <v>1.046871900558472</v>
+        <v>0.2992643117904663</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05069393664598465</v>
+        <v>0.2726660072803497</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5487829446792603</v>
+        <v>0.2859653234481812</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9403810917690228</v>
+        <v>0.9482754765448301</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7204525908605859</v>
+        <v>0.7344531573643975</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8044269137164453</v>
+        <v>0.8628101547121009</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9814899925682538</v>
+        <v>0.7241051527833814</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8980995479658903</v>
+        <v>0.8778583998320739</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2502078115940094</v>
+        <v>0.2170767337083817</v>
       </c>
       <c r="H20" t="n">
-        <v>1.869334697723389</v>
+        <v>1.775712966918945</v>
       </c>
       <c r="I20" t="n">
-        <v>1.050372242927551</v>
+        <v>0.2914223670959473</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05110816657543182</v>
+        <v>0.2726927399635315</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5507403016090393</v>
+        <v>0.2820575833320618</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9398686507411158</v>
+        <v>0.9479499550306761</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7199892935288525</v>
+        <v>0.7337575319104974</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8037549281147403</v>
+        <v>0.8665184993159807</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9813287575099662</v>
+        <v>0.7237855822390047</v>
       </c>
       <c r="F21" t="n">
-        <v>0.897724494664431</v>
+        <v>0.8794956542326079</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2523584067821503</v>
+        <v>0.2184428721666336</v>
       </c>
       <c r="H21" t="n">
-        <v>1.872432947158813</v>
+        <v>1.780364632606506</v>
       </c>
       <c r="I21" t="n">
-        <v>1.053981304168701</v>
+        <v>0.2835449874401093</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05155335366725922</v>
+        <v>0.2730086147785187</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5527673363685608</v>
+        <v>0.2782767415046692</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9393434143888194</v>
+        <v>0.9476018306015912</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7195173729690109</v>
+        <v>0.7330435541268303</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8030617287250654</v>
+        <v>0.8702432810590423</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9811563745152536</v>
+        <v>0.723160234432503</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8973360357157205</v>
+        <v>0.8810749090257274</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2545626759529114</v>
+        <v>0.219903901219368</v>
       </c>
       <c r="H22" t="n">
-        <v>1.875588655471802</v>
+        <v>1.785138964653015</v>
       </c>
       <c r="I22" t="n">
-        <v>1.057704448699951</v>
+        <v>0.2756327390670776</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0520293191075325</v>
+        <v>0.2736267149448395</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5548668503761292</v>
+        <v>0.2746298313140869</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9388051538909616</v>
+        <v>0.9472302727428956</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7190367178719268</v>
+        <v>0.7323107902938438</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8023470365359952</v>
+        <v>0.8739846149192736</v>
       </c>
       <c r="E23" t="n">
-        <v>0.980972612038149</v>
+        <v>0.7222150250414934</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8969339932504037</v>
+        <v>0.8825934815496886</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2568216621875763</v>
+        <v>0.2214632481336594</v>
       </c>
       <c r="H23" t="n">
-        <v>1.87880277633667</v>
+        <v>1.7900390625</v>
       </c>
       <c r="I23" t="n">
-        <v>1.061542868614197</v>
+        <v>0.2676852643489838</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05253671109676361</v>
+        <v>0.274560958147049</v>
       </c>
       <c r="K23" t="n">
-        <v>0.557039737701416</v>
+        <v>0.2711230516433716</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9382535710645982</v>
+        <v>0.9468346085419319</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7185472032067695</v>
+        <v>0.7315588166339673</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8016099701102914</v>
+        <v>0.8777424981564941</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9807775581693128</v>
+        <v>0.7209386893936217</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8965179485712841</v>
+        <v>0.8840486323911773</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2591365575790405</v>
+        <v>0.2231237590312958</v>
       </c>
       <c r="H24" t="n">
-        <v>1.882076144218445</v>
+        <v>1.795067548751831</v>
       </c>
       <c r="I24" t="n">
-        <v>1.06550133228302</v>
+        <v>0.2597026824951172</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05307527258992195</v>
+        <v>0.2758224606513977</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5592883229255676</v>
+        <v>0.2677627205848694</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9376883588393655</v>
+        <v>0.9464140960856777</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7180487106046225</v>
+        <v>0.7307872007180415</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8008498794761852</v>
+        <v>0.8815172472341886</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9805711458360961</v>
+        <v>0.7193168056023547</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8960875672173296</v>
+        <v>0.8854377359361921</v>
       </c>
       <c r="G25" t="n">
-        <v>0.261508584022522</v>
+        <v>0.2248885929584503</v>
       </c>
       <c r="H25" t="n">
-        <v>1.885409593582153</v>
+        <v>1.800227284431458</v>
       </c>
       <c r="I25" t="n">
-        <v>1.069583535194397</v>
+        <v>0.2516842484474182</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05364520102739334</v>
+        <v>0.2774255275726318</v>
       </c>
       <c r="K25" t="n">
-        <v>0.561614453792572</v>
+        <v>0.264554888010025</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9371091896069401</v>
+        <v>0.945967939435743</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7175410807687719</v>
+        <v>0.7299954936907564</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8000660505447693</v>
+        <v>0.8853089491256974</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9803534857741536</v>
+        <v>0.7173364140634773</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8956425199161593</v>
+        <v>0.8867578544339426</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2639392614364624</v>
+        <v>0.2267609834671021</v>
       </c>
       <c r="H26" t="n">
-        <v>1.888803958892822</v>
+        <v>1.805521488189697</v>
       </c>
       <c r="I26" t="n">
-        <v>1.073793411254883</v>
+        <v>0.2436298280954361</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05424617975950241</v>
+        <v>0.2793829143047333</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5640197396278381</v>
+        <v>0.2615063786506653</v>
       </c>
     </row>
   </sheetData>
